--- a/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.771565958590088</v>
+        <v>1.680074547450403</v>
       </c>
       <c r="C2">
-        <v>1.029783674735143</v>
+        <v>0.3118441062253794</v>
       </c>
       <c r="D2">
-        <v>0.03507274177825437</v>
+        <v>0.03879097107055252</v>
       </c>
       <c r="E2">
-        <v>1.455364577743765</v>
+        <v>1.373189022446752</v>
       </c>
       <c r="F2">
-        <v>2.436983521825198</v>
+        <v>1.834494974827265</v>
       </c>
       <c r="G2">
-        <v>0.0007625868787197133</v>
+        <v>0.0008017265230321314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.087752436374274</v>
+        <v>1.895278540645592</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006176694831382</v>
+        <v>1.599171737119406</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.237567059051685</v>
+        <v>1.451648452499427</v>
       </c>
       <c r="C3">
-        <v>0.881951497473068</v>
+        <v>0.2679087676842755</v>
       </c>
       <c r="D3">
-        <v>0.03417461473463135</v>
+        <v>0.04073673881907602</v>
       </c>
       <c r="E3">
-        <v>1.237693091274792</v>
+        <v>1.174037997315125</v>
       </c>
       <c r="F3">
-        <v>2.147019062200158</v>
+        <v>1.668824016863326</v>
       </c>
       <c r="G3">
-        <v>0.0007730568168566876</v>
+        <v>0.0008095255172285306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9327972451923614</v>
+        <v>1.634242730206608</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.014801065646068</v>
+        <v>1.587042012018728</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.91722684803409</v>
+        <v>1.313904821740721</v>
       </c>
       <c r="C4">
-        <v>0.7933050716740127</v>
+        <v>0.2414226100910639</v>
       </c>
       <c r="D4">
-        <v>0.03378623985796381</v>
+        <v>0.0419589085433838</v>
       </c>
       <c r="E4">
-        <v>1.108519988636687</v>
+        <v>1.054825354249857</v>
       </c>
       <c r="F4">
-        <v>1.975964431348856</v>
+        <v>1.570720671640672</v>
       </c>
       <c r="G4">
-        <v>0.0007795961420441477</v>
+        <v>0.0008144265333191114</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8398481709299261</v>
+        <v>1.476836497454599</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.022491335899488</v>
+        <v>1.581787468880918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788281335373085</v>
+        <v>1.258318038986516</v>
       </c>
       <c r="C5">
-        <v>0.7576244068885671</v>
+        <v>0.2307332800510835</v>
       </c>
       <c r="D5">
-        <v>0.03366385776448411</v>
+        <v>0.04246343518808082</v>
       </c>
       <c r="E5">
-        <v>1.05681310983087</v>
+        <v>1.006893308211232</v>
       </c>
       <c r="F5">
-        <v>1.907783417759148</v>
+        <v>1.53156011948758</v>
       </c>
       <c r="G5">
-        <v>0.0007822925001088067</v>
+        <v>0.0008164537819977183</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8024334338274457</v>
+        <v>1.413311731378769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.026172713171704</v>
+        <v>1.580157984969603</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.766958308713072</v>
+        <v>1.249118421029607</v>
       </c>
       <c r="C6">
-        <v>0.7517240071865103</v>
+        <v>0.2289640762526517</v>
       </c>
       <c r="D6">
-        <v>0.03364556697777843</v>
+        <v>0.04254759197909408</v>
       </c>
       <c r="E6">
-        <v>1.048278349954217</v>
+        <v>0.9989700166505031</v>
       </c>
       <c r="F6">
-        <v>1.896547873137749</v>
+        <v>1.52510435064427</v>
       </c>
       <c r="G6">
-        <v>0.0007827422322187243</v>
+        <v>0.0008167922688247281</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7962462921247067</v>
+        <v>1.402798095127338</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.026815594910602</v>
+        <v>1.579917227942403</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.915481753305585</v>
+        <v>1.313153061555937</v>
       </c>
       <c r="C7">
-        <v>0.7928221856905395</v>
+        <v>0.2412780531589931</v>
       </c>
       <c r="D7">
-        <v>0.03378445034075028</v>
+        <v>0.04196568702469428</v>
       </c>
       <c r="E7">
-        <v>1.107819114300796</v>
+        <v>1.054176455156409</v>
       </c>
       <c r="F7">
-        <v>1.975039029201952</v>
+        <v>1.570189345857642</v>
       </c>
       <c r="G7">
-        <v>0.0007796323739403056</v>
+        <v>0.0008144537496058511</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8393418189277924</v>
+        <v>1.475977400223911</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.022538834902321</v>
+        <v>1.581763470750403</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.58568675009252</v>
+        <v>1.600737439976456</v>
       </c>
       <c r="C8">
-        <v>0.9783124053710708</v>
+        <v>0.296581211545714</v>
       </c>
       <c r="D8">
-        <v>0.0347259025658424</v>
+        <v>0.03945589471959821</v>
       </c>
       <c r="E8">
-        <v>1.379256555817449</v>
+        <v>1.303806786307362</v>
       </c>
       <c r="F8">
-        <v>2.335405941044243</v>
+        <v>1.77656189278747</v>
       </c>
       <c r="G8">
-        <v>0.0007661762894042301</v>
+        <v>0.0008043934105150218</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.03381146741232</v>
+        <v>1.80461287741042</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.008618280204217</v>
+        <v>1.594509149846033</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.97552776007285</v>
+        <v>2.188993428884601</v>
       </c>
       <c r="C9">
-        <v>1.363689719934086</v>
+        <v>0.409904825251175</v>
       </c>
       <c r="D9">
-        <v>0.03814259869277947</v>
+        <v>0.03477549537836744</v>
       </c>
       <c r="E9">
-        <v>1.957541588794001</v>
+        <v>1.824031900406268</v>
       </c>
       <c r="F9">
-        <v>3.109657513958524</v>
+        <v>2.214662601322786</v>
       </c>
       <c r="G9">
-        <v>0.0007404738090946304</v>
+        <v>0.0007854670471413868</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.437262785548171</v>
+        <v>2.477034350752518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.003193752059076</v>
+        <v>1.638909485427519</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.069108998749073</v>
+        <v>2.642958859354621</v>
       </c>
       <c r="C10">
-        <v>1.668085685172855</v>
+        <v>0.4977113851389845</v>
       </c>
       <c r="D10">
-        <v>0.04208862457271323</v>
+        <v>0.03152506084379425</v>
       </c>
       <c r="E10">
-        <v>2.428571745426595</v>
+        <v>2.235350838295943</v>
       </c>
       <c r="F10">
-        <v>3.740022700803422</v>
+        <v>2.564334350405744</v>
       </c>
       <c r="G10">
-        <v>0.0007216826230476322</v>
+        <v>0.0007719080463944878</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.755014179840927</v>
+        <v>2.996371671911277</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.017347517900234</v>
+        <v>1.686539507863031</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.589889391723148</v>
+        <v>2.856041752768135</v>
       </c>
       <c r="C11">
-        <v>1.813512353348472</v>
+        <v>0.539065503862787</v>
       </c>
       <c r="D11">
-        <v>0.04433884402747879</v>
+        <v>0.0300996656977226</v>
       </c>
       <c r="E11">
-        <v>2.65831867117349</v>
+        <v>2.431648288519852</v>
       </c>
       <c r="F11">
-        <v>4.045964961280816</v>
+        <v>2.731406374876428</v>
       </c>
       <c r="G11">
-        <v>0.0007130607141122016</v>
+        <v>0.0007657772275921239</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.90645569714178</v>
+        <v>3.240311798200423</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.029103659595791</v>
+        <v>1.712307655701778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.7912506813542</v>
+        <v>2.937856053891835</v>
       </c>
       <c r="C12">
-        <v>1.869832789543636</v>
+        <v>0.5549699984066478</v>
       </c>
       <c r="D12">
-        <v>0.04527231135919862</v>
+        <v>0.02956893390138404</v>
       </c>
       <c r="E12">
-        <v>2.74814845274787</v>
+        <v>2.507594303207455</v>
       </c>
       <c r="F12">
-        <v>4.165196408892001</v>
+        <v>2.796016469678534</v>
       </c>
       <c r="G12">
-        <v>0.0007097752167396369</v>
+        <v>0.0007634572903732017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.96503506577433</v>
+        <v>3.334006974787144</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.03446777396114</v>
+        <v>1.722738407411555</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.747684453559714</v>
+        <v>2.920182714467785</v>
       </c>
       <c r="C13">
-        <v>1.857642927156633</v>
+        <v>0.5515330636107194</v>
       </c>
       <c r="D13">
-        <v>0.04506735520718763</v>
+        <v>0.02968280922250877</v>
       </c>
       <c r="E13">
-        <v>2.728664759139008</v>
+        <v>2.491161026784994</v>
       </c>
       <c r="F13">
-        <v>4.139356163337936</v>
+        <v>2.782038388573824</v>
       </c>
       <c r="G13">
-        <v>0.0007104839063481775</v>
+        <v>0.0007639569210124361</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.95235973807047</v>
+        <v>3.313765542210547</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.033269219872636</v>
+        <v>1.720460565439879</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.606367022816698</v>
+        <v>2.862749002502937</v>
       </c>
       <c r="C14">
-        <v>1.818119160894184</v>
+        <v>0.5403688105467666</v>
       </c>
       <c r="D14">
-        <v>0.0444139043103462</v>
+        <v>0.03005581195576568</v>
       </c>
       <c r="E14">
-        <v>2.665648267299758</v>
+        <v>2.437862233335096</v>
       </c>
       <c r="F14">
-        <v>4.055702457297031</v>
+        <v>2.736693750681241</v>
       </c>
       <c r="G14">
-        <v>0.0007127908919919165</v>
+        <v>0.0007655863547833329</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.911248795686234</v>
+        <v>3.247992346896126</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.029525716872911</v>
+        <v>1.713151790816994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.52037377323677</v>
+        <v>2.827721425611401</v>
       </c>
       <c r="C15">
-        <v>1.79408100175084</v>
+        <v>0.5335635917435582</v>
       </c>
       <c r="D15">
-        <v>0.04402478491781636</v>
+        <v>0.03028550985364653</v>
       </c>
       <c r="E15">
-        <v>2.627438035282907</v>
+        <v>2.405434742815231</v>
       </c>
       <c r="F15">
-        <v>4.004922795680017</v>
+        <v>2.709100038261965</v>
       </c>
       <c r="G15">
-        <v>0.000714200973085575</v>
+        <v>0.0007665845282186334</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.88623563925475</v>
+        <v>3.207883247411701</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.027356481929829</v>
+        <v>1.708765278063879</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.035608289907884</v>
+        <v>2.629180358934832</v>
       </c>
       <c r="C16">
-        <v>1.658741783056144</v>
+        <v>0.4950405974905721</v>
       </c>
       <c r="D16">
-        <v>0.0419519956831067</v>
+        <v>0.03161939586184914</v>
       </c>
       <c r="E16">
-        <v>2.413916780684133</v>
+        <v>2.222730911427121</v>
       </c>
       <c r="F16">
-        <v>3.720464551153583</v>
+        <v>2.553592672998747</v>
       </c>
       <c r="G16">
-        <v>0.0007222438007572449</v>
+        <v>0.0007723091571107616</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.745275197144224</v>
+        <v>2.980601959376827</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.016698114218258</v>
+        <v>1.684944847205458</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.744706417401744</v>
+        <v>2.509184422998828</v>
       </c>
       <c r="C17">
-        <v>1.577657872117527</v>
+        <v>0.4717969146912253</v>
       </c>
       <c r="D17">
-        <v>0.04080709142560579</v>
+        <v>0.03245221344295501</v>
       </c>
       <c r="E17">
-        <v>2.287274805264019</v>
+        <v>2.113192133070228</v>
       </c>
       <c r="F17">
-        <v>3.551271710935652</v>
+        <v>2.460372192307844</v>
       </c>
       <c r="G17">
-        <v>0.0007271525266181467</v>
+        <v>0.0007758281218221344</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.660721271001123</v>
+        <v>2.843284608102806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.011616676687467</v>
+        <v>1.671437470961706</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.579523927156913</v>
+        <v>2.440772300486117</v>
       </c>
       <c r="C18">
-        <v>1.531657350053763</v>
+        <v>0.4585576648163396</v>
       </c>
       <c r="D18">
-        <v>0.04019026069958187</v>
+        <v>0.03293614062329908</v>
       </c>
       <c r="E18">
-        <v>2.215846149717521</v>
+        <v>2.051032748582429</v>
       </c>
       <c r="F18">
-        <v>3.455718359346633</v>
+        <v>2.407494580082499</v>
       </c>
       <c r="G18">
-        <v>0.0007299696694235136</v>
+        <v>0.000777855893394347</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.612719961867057</v>
+        <v>2.765012611213393</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.009183975467224</v>
+        <v>1.664048729591229</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.523941283330544</v>
+        <v>2.417708238203659</v>
       </c>
       <c r="C19">
-        <v>1.516185005973853</v>
+        <v>0.4540962269112754</v>
       </c>
       <c r="D19">
-        <v>0.03998815070188044</v>
+        <v>0.03310079678691125</v>
       </c>
       <c r="E19">
-        <v>2.191888242853395</v>
+        <v>2.03012363846446</v>
       </c>
       <c r="F19">
-        <v>3.423651535967053</v>
+        <v>2.389712880375725</v>
       </c>
       <c r="G19">
-        <v>0.000730922704344589</v>
+        <v>0.0007785432102776949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.596569588653779</v>
+        <v>2.738626872136848</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.00844047970763</v>
+        <v>1.661610019890233</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.775447040231825</v>
+        <v>2.521894224365269</v>
       </c>
       <c r="C20">
-        <v>1.586221853441373</v>
+        <v>0.474257518706338</v>
       </c>
       <c r="D20">
-        <v>0.04092455132330031</v>
+        <v>0.03236304117419486</v>
       </c>
       <c r="E20">
-        <v>2.300605986137839</v>
+        <v>2.124763384432796</v>
       </c>
       <c r="F20">
-        <v>3.569096175807488</v>
+        <v>2.47021774635472</v>
       </c>
       <c r="G20">
-        <v>0.0007266306938650106</v>
+        <v>0.0007754531582232839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.669655212466026</v>
+        <v>2.857827414170089</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.012105924050559</v>
+        <v>1.672835427456789</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.647755358463883</v>
+        <v>2.87958659111996</v>
       </c>
       <c r="C21">
-        <v>1.82969201903677</v>
+        <v>0.5436410172069657</v>
       </c>
       <c r="D21">
-        <v>0.04460348297534011</v>
+        <v>0.02994599421821675</v>
       </c>
       <c r="E21">
-        <v>2.684075314588213</v>
+        <v>2.45347102594647</v>
       </c>
       <c r="F21">
-        <v>4.08017626833913</v>
+        <v>2.749974424182597</v>
       </c>
       <c r="G21">
-        <v>0.0007121139237692962</v>
+        <v>0.0007651077373576706</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.923288454301371</v>
+        <v>3.267273818753949</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.030599167990047</v>
+        <v>1.71527956470274</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.242583136610563</v>
+        <v>3.120017686471385</v>
       </c>
       <c r="C22">
-        <v>1.996265841396166</v>
+        <v>0.5904374207340197</v>
       </c>
       <c r="D22">
-        <v>0.04749279849633581</v>
+        <v>0.02841986453175416</v>
       </c>
       <c r="E22">
-        <v>2.951597692921212</v>
+        <v>2.677876152058175</v>
       </c>
       <c r="F22">
-        <v>4.434283539462996</v>
+        <v>2.94075482425535</v>
       </c>
       <c r="G22">
-        <v>0.0007025000089029297</v>
+        <v>0.0007583539888766682</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.096387328624388</v>
+        <v>3.542691854126645</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.048098539574681</v>
+        <v>1.746990027703276</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.922534141045332</v>
+        <v>2.99101901986046</v>
       </c>
       <c r="C23">
-        <v>1.906581146917915</v>
+        <v>0.5653129289438539</v>
       </c>
       <c r="D23">
-        <v>0.04589992003612764</v>
+        <v>0.02922894433216783</v>
       </c>
       <c r="E23">
-        <v>2.807024065333152</v>
+        <v>2.557119534226004</v>
       </c>
       <c r="F23">
-        <v>4.243208009723958</v>
+        <v>2.838133232726022</v>
       </c>
       <c r="G23">
-        <v>0.0007076466475495405</v>
+        <v>0.0007619592742973368</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.003235210079055</v>
+        <v>3.394900444385542</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.03820527331068</v>
+        <v>1.729671212800952</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.761542843515997</v>
+        <v>2.516146344919946</v>
       </c>
       <c r="C24">
-        <v>1.582348177801975</v>
+        <v>0.4731446969176716</v>
       </c>
       <c r="D24">
-        <v>0.04087131992552173</v>
+        <v>0.03240334008103929</v>
       </c>
       <c r="E24">
-        <v>2.294574705783774</v>
+        <v>2.11952950151435</v>
       </c>
       <c r="F24">
-        <v>3.561032429246779</v>
+        <v>2.465764355083635</v>
       </c>
       <c r="G24">
-        <v>0.0007268666290844269</v>
+        <v>0.0007756226643841673</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.6656142953006</v>
+        <v>2.851250529246471</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.011883223855889</v>
+        <v>1.672202243714665</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.58900236563818</v>
+        <v>2.026587526014168</v>
       </c>
       <c r="C25">
-        <v>1.256374346455402</v>
+        <v>0.3785760741302511</v>
       </c>
       <c r="D25">
-        <v>0.03700670000399953</v>
+        <v>0.03601213459516117</v>
       </c>
       <c r="E25">
-        <v>1.794529374791679</v>
+        <v>1.679033279112986</v>
       </c>
       <c r="F25">
-        <v>2.891084157676914</v>
+        <v>2.091857938224649</v>
       </c>
       <c r="G25">
-        <v>0.0007473837762758118</v>
+        <v>0.0007905149192753208</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.325024882170169</v>
+        <v>2.291343729953724</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.001875069806928</v>
+        <v>1.624517111404032</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.680074547450403</v>
+        <v>1.096683238643152</v>
       </c>
       <c r="C2">
-        <v>0.3118441062253794</v>
+        <v>0.2532363390110959</v>
       </c>
       <c r="D2">
-        <v>0.03879097107055252</v>
+        <v>0.04246238224219212</v>
       </c>
       <c r="E2">
-        <v>1.373189022446752</v>
+        <v>1.309943267268125</v>
       </c>
       <c r="F2">
-        <v>1.834494974827265</v>
+        <v>0.7457128266969022</v>
       </c>
       <c r="G2">
-        <v>0.0008017265230321314</v>
+        <v>0.6578740848121782</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006545012127430305</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4587774152869599</v>
       </c>
       <c r="K2">
-        <v>1.895278540645592</v>
+        <v>0.3899850615615534</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.310696010820664</v>
       </c>
       <c r="N2">
-        <v>1.599171737119406</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7469601270410884</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451648452499427</v>
+        <v>0.9525325446893191</v>
       </c>
       <c r="C3">
-        <v>0.2679087676842755</v>
+        <v>0.2201659039657073</v>
       </c>
       <c r="D3">
-        <v>0.04073673881907602</v>
+        <v>0.03945626923576384</v>
       </c>
       <c r="E3">
-        <v>1.174037997315125</v>
+        <v>1.138022395686079</v>
       </c>
       <c r="F3">
-        <v>1.668824016863326</v>
+        <v>0.6895188325978694</v>
       </c>
       <c r="G3">
-        <v>0.0008095255172285306</v>
+        <v>0.6092426983436496</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004081230096416588</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4412177759691076</v>
       </c>
       <c r="K3">
-        <v>1.634242730206608</v>
+        <v>0.3769132504285757</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.138494760440778</v>
       </c>
       <c r="N3">
-        <v>1.587042012018728</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7806494981598711</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.313904821740721</v>
+        <v>0.864252800102264</v>
       </c>
       <c r="C4">
-        <v>0.2414226100910639</v>
+        <v>0.1999278964025848</v>
       </c>
       <c r="D4">
-        <v>0.0419589085433838</v>
+        <v>0.03758367776491056</v>
       </c>
       <c r="E4">
-        <v>1.054825354249857</v>
+        <v>1.032864463636841</v>
       </c>
       <c r="F4">
-        <v>1.570720671640672</v>
+        <v>0.6560036488666867</v>
       </c>
       <c r="G4">
-        <v>0.0008144265333191114</v>
+        <v>0.5803133240637521</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002818475001246989</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4309865744772736</v>
       </c>
       <c r="K4">
-        <v>1.476836497454599</v>
+        <v>0.369460818599034</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.03305122783712</v>
       </c>
       <c r="N4">
-        <v>1.581787468880918</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8021486849245765</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.258318038986516</v>
+        <v>0.8283211712897867</v>
       </c>
       <c r="C5">
-        <v>0.2307332800510835</v>
+        <v>0.1916934807493504</v>
       </c>
       <c r="D5">
-        <v>0.04246343518808082</v>
+        <v>0.03681387080749943</v>
       </c>
       <c r="E5">
-        <v>1.006893308211232</v>
+        <v>0.9900903040723534</v>
       </c>
       <c r="F5">
-        <v>1.53156011948758</v>
+        <v>0.6425767351000928</v>
       </c>
       <c r="G5">
-        <v>0.0008164537819977183</v>
+        <v>0.568740883257874</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002362074124612867</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4269477451456396</v>
       </c>
       <c r="K5">
-        <v>1.413311731378769</v>
+        <v>0.3665598169465483</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9901362068659694</v>
       </c>
       <c r="N5">
-        <v>1.580157984969603</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8111075924212088</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.249118421029607</v>
+        <v>0.8223569428510018</v>
       </c>
       <c r="C6">
-        <v>0.2289640762526517</v>
+        <v>0.1903268131962221</v>
       </c>
       <c r="D6">
-        <v>0.04254759197909408</v>
+        <v>0.03668564074412117</v>
       </c>
       <c r="E6">
-        <v>0.9989700166505031</v>
+        <v>0.9829917923416644</v>
       </c>
       <c r="F6">
-        <v>1.52510435064427</v>
+        <v>0.6403606453967967</v>
       </c>
       <c r="G6">
-        <v>0.0008167922688247281</v>
+        <v>0.5668318711243359</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002289669906662128</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4262847555590241</v>
       </c>
       <c r="K6">
-        <v>1.402798095127338</v>
+        <v>0.3660860812520319</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9830129443602686</v>
       </c>
       <c r="N6">
-        <v>1.579917227942403</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8126069670251557</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.313153061555937</v>
+        <v>0.863768057843231</v>
       </c>
       <c r="C7">
-        <v>0.2412780531589931</v>
+        <v>0.1998167980077312</v>
       </c>
       <c r="D7">
-        <v>0.04196568702469428</v>
+        <v>0.03757332300145677</v>
       </c>
       <c r="E7">
-        <v>1.054176455156409</v>
+        <v>1.032287307370964</v>
       </c>
       <c r="F7">
-        <v>1.570189345857642</v>
+        <v>0.6558216570630364</v>
       </c>
       <c r="G7">
-        <v>0.0008144537496058511</v>
+        <v>0.5801563998703756</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002812090291246294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4309315873738058</v>
       </c>
       <c r="K7">
-        <v>1.475977400223911</v>
+        <v>0.369421155046016</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.032472265653979</v>
       </c>
       <c r="N7">
-        <v>1.581763470750403</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8022687156890953</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.600737439976456</v>
+        <v>1.046923397533106</v>
       </c>
       <c r="C8">
-        <v>0.296581211545714</v>
+        <v>0.2418170549396734</v>
       </c>
       <c r="D8">
-        <v>0.03945589471959821</v>
+        <v>0.04143146103472972</v>
       </c>
       <c r="E8">
-        <v>1.303806786307362</v>
+        <v>1.250567503960468</v>
       </c>
       <c r="F8">
-        <v>1.77656189278747</v>
+        <v>0.7261211116445807</v>
       </c>
       <c r="G8">
-        <v>0.0008043934105150218</v>
+        <v>0.6409020588526175</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005640725256658707</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4526036780670069</v>
       </c>
       <c r="K8">
-        <v>1.80461287741042</v>
+        <v>0.3853536754000686</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.251249569912346</v>
       </c>
       <c r="N8">
-        <v>1.594509149846033</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7584031179492499</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.188993428884601</v>
+        <v>1.40862655967436</v>
       </c>
       <c r="C9">
-        <v>0.409904825251175</v>
+        <v>0.3249196782474542</v>
       </c>
       <c r="D9">
-        <v>0.03477549537836744</v>
+        <v>0.04878339979190827</v>
       </c>
       <c r="E9">
-        <v>1.824031900406268</v>
+        <v>1.68289707176973</v>
       </c>
       <c r="F9">
-        <v>2.214662601322786</v>
+        <v>0.8726674551577815</v>
       </c>
       <c r="G9">
-        <v>0.0007854670471413868</v>
+        <v>0.7682450394219273</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01339296803937984</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4998520238899005</v>
       </c>
       <c r="K9">
-        <v>2.477034350752518</v>
+        <v>0.4215480313651625</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.683470346682526</v>
       </c>
       <c r="N9">
-        <v>1.638909485427519</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6791618829741779</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.642958859354621</v>
+        <v>1.669771581278354</v>
       </c>
       <c r="C10">
-        <v>0.4977113851389845</v>
+        <v>0.3823664411435459</v>
       </c>
       <c r="D10">
-        <v>0.03152506084379425</v>
+        <v>0.05502352474987049</v>
       </c>
       <c r="E10">
-        <v>2.235350838295943</v>
+        <v>1.903662538812583</v>
       </c>
       <c r="F10">
-        <v>2.564334350405744</v>
+        <v>0.973732108723226</v>
       </c>
       <c r="G10">
-        <v>0.0007719080463944878</v>
+        <v>0.8536928963456916</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02014078243982897</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5310057686339746</v>
       </c>
       <c r="K10">
-        <v>2.996371671911277</v>
+        <v>0.4450715710466895</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.992110716226222</v>
       </c>
       <c r="N10">
-        <v>1.686539507863031</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6223095829227354</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.856041752768135</v>
+        <v>1.726202639486417</v>
       </c>
       <c r="C11">
-        <v>0.539065503862787</v>
+        <v>0.3712349120766589</v>
       </c>
       <c r="D11">
-        <v>0.0300996656977226</v>
+        <v>0.06701640179983315</v>
       </c>
       <c r="E11">
-        <v>2.431648288519852</v>
+        <v>1.224658074099352</v>
       </c>
       <c r="F11">
-        <v>2.731406374876428</v>
+        <v>0.9085466514238192</v>
       </c>
       <c r="G11">
-        <v>0.0007657772275921239</v>
+        <v>0.7721343971197427</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03600864669700243</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4861638844025009</v>
       </c>
       <c r="K11">
-        <v>3.240311798200423</v>
+        <v>0.4001139681782604</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.027063146340026</v>
       </c>
       <c r="N11">
-        <v>1.712307655701778</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5749456652057248</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.937856053891835</v>
+        <v>1.718116587915176</v>
       </c>
       <c r="C12">
-        <v>0.5549699984066478</v>
+        <v>0.3503518994771184</v>
       </c>
       <c r="D12">
-        <v>0.02956893390138404</v>
+        <v>0.07683116928581057</v>
       </c>
       <c r="E12">
-        <v>2.507594303207455</v>
+        <v>0.7361531798971868</v>
       </c>
       <c r="F12">
-        <v>2.796016469678534</v>
+        <v>0.8335914646536651</v>
       </c>
       <c r="G12">
-        <v>0.0007634572903732017</v>
+        <v>0.6884032902450059</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07223507780971516</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4428588440431867</v>
       </c>
       <c r="K12">
-        <v>3.334006974787144</v>
+        <v>0.3587328441353677</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.991101774655732</v>
       </c>
       <c r="N12">
-        <v>1.722738407411555</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5535301984367669</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920182714467785</v>
+        <v>1.660078103530111</v>
       </c>
       <c r="C13">
-        <v>0.5515330636107194</v>
+        <v>0.3209868428505445</v>
       </c>
       <c r="D13">
-        <v>0.02968280922250877</v>
+        <v>0.08538484099352672</v>
       </c>
       <c r="E13">
-        <v>2.491161026784994</v>
+        <v>0.3665784061742414</v>
       </c>
       <c r="F13">
-        <v>2.782038388573824</v>
+        <v>0.7469159644707304</v>
       </c>
       <c r="G13">
-        <v>0.0007639569210124361</v>
+        <v>0.5983295542608005</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1255292100764933</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3982342762643469</v>
       </c>
       <c r="K13">
-        <v>3.313765542210547</v>
+        <v>0.3176525222196176</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.898964898993768</v>
       </c>
       <c r="N13">
-        <v>1.720460565439879</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.5497557822412884</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.862749002502937</v>
+        <v>1.597273006316328</v>
       </c>
       <c r="C14">
-        <v>0.5403688105467666</v>
+        <v>0.2969279560106486</v>
       </c>
       <c r="D14">
-        <v>0.03005581195576568</v>
+        <v>0.0908323264911175</v>
       </c>
       <c r="E14">
-        <v>2.437862233335096</v>
+        <v>0.1802201457520027</v>
       </c>
       <c r="F14">
-        <v>2.736693750681241</v>
+        <v>0.6817799919209335</v>
       </c>
       <c r="G14">
-        <v>0.0007655863547833329</v>
+        <v>0.5334720593612445</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1732645670386148</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3668419358795632</v>
       </c>
       <c r="K14">
-        <v>3.247992346896126</v>
+        <v>0.2894932104971453</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.809807138679417</v>
       </c>
       <c r="N14">
-        <v>1.713151790816994</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5556099885838464</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.827721425611401</v>
+        <v>1.571505984733733</v>
       </c>
       <c r="C15">
-        <v>0.5335635917435582</v>
+        <v>0.2892395114834869</v>
       </c>
       <c r="D15">
-        <v>0.03028550985364653</v>
+        <v>0.09173187124256543</v>
       </c>
       <c r="E15">
-        <v>2.405434742815231</v>
+        <v>0.1437785454043272</v>
       </c>
       <c r="F15">
-        <v>2.709100038261965</v>
+        <v>0.6633548482218643</v>
       </c>
       <c r="G15">
-        <v>0.0007665845282186334</v>
+        <v>0.5160372170657013</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1852348596132174</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3588189897629235</v>
       </c>
       <c r="K15">
-        <v>3.207883247411701</v>
+        <v>0.2825394953252598</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.776334654798347</v>
       </c>
       <c r="N15">
-        <v>1.708765278063879</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5598113066466102</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.629180358934832</v>
+        <v>1.472385049696953</v>
       </c>
       <c r="C16">
-        <v>0.4950405974905721</v>
+        <v>0.2715239726997822</v>
       </c>
       <c r="D16">
-        <v>0.03161939586184914</v>
+        <v>0.08691223566468409</v>
       </c>
       <c r="E16">
-        <v>2.222730911427121</v>
+        <v>0.139731602577065</v>
       </c>
       <c r="F16">
-        <v>2.553592672998747</v>
+        <v>0.6387347638231731</v>
       </c>
       <c r="G16">
-        <v>0.0007723091571107616</v>
+        <v>0.4990327292762373</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1705069524992524</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3549167058025233</v>
       </c>
       <c r="K16">
-        <v>2.980601959376827</v>
+        <v>0.2810194992828912</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.664953140548647</v>
       </c>
       <c r="N16">
-        <v>1.684944847205458</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.5823443853939221</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.509184422998828</v>
+        <v>1.42962628629806</v>
       </c>
       <c r="C17">
-        <v>0.4717969146912253</v>
+        <v>0.2704945755288577</v>
       </c>
       <c r="D17">
-        <v>0.03245221344295501</v>
+        <v>0.08032355981627859</v>
       </c>
       <c r="E17">
-        <v>2.113192133070228</v>
+        <v>0.2217533816740556</v>
       </c>
       <c r="F17">
-        <v>2.460372192307844</v>
+        <v>0.654207661922193</v>
       </c>
       <c r="G17">
-        <v>0.0007758281218221344</v>
+        <v>0.5200160224400747</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1319785726333151</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3684857899593794</v>
       </c>
       <c r="K17">
-        <v>2.843284608102806</v>
+        <v>0.294696769582611</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.626551357822137</v>
       </c>
       <c r="N17">
-        <v>1.671437470961706</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.5966078375993922</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.440772300486117</v>
+        <v>1.430245631618931</v>
       </c>
       <c r="C18">
-        <v>0.4585576648163396</v>
+        <v>0.284094240097005</v>
       </c>
       <c r="D18">
-        <v>0.03293614062329908</v>
+        <v>0.07188209036218041</v>
       </c>
       <c r="E18">
-        <v>2.051032748582429</v>
+        <v>0.4499592744951357</v>
       </c>
       <c r="F18">
-        <v>2.407494580082499</v>
+        <v>0.7068028040995529</v>
       </c>
       <c r="G18">
-        <v>0.000777855893394347</v>
+        <v>0.5777927774755085</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07970640180937494</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3992792969582553</v>
       </c>
       <c r="K18">
-        <v>2.765012611213393</v>
+        <v>0.323825874564136</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.646580953463655</v>
       </c>
       <c r="N18">
-        <v>1.664048729591229</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.608348901219915</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.417708238203659</v>
+        <v>1.466080119306213</v>
       </c>
       <c r="C19">
-        <v>0.4540962269112754</v>
+        <v>0.3093532515036372</v>
       </c>
       <c r="D19">
-        <v>0.03310079678691125</v>
+        <v>0.06311875008480428</v>
       </c>
       <c r="E19">
-        <v>2.03012363846446</v>
+        <v>0.8766361220194341</v>
       </c>
       <c r="F19">
-        <v>2.389712880375725</v>
+        <v>0.7876885630920896</v>
       </c>
       <c r="G19">
-        <v>0.0007785432102776949</v>
+        <v>0.6644828312818873</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03669125243779803</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4430993725944461</v>
       </c>
       <c r="K19">
-        <v>2.738626872136848</v>
+        <v>0.3649173475090279</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.713227869036643</v>
       </c>
       <c r="N19">
-        <v>1.661610019890233</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6216209246293021</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.521894224365269</v>
+        <v>1.600711367583358</v>
       </c>
       <c r="C20">
-        <v>0.474257518706338</v>
+        <v>0.3670517135436171</v>
       </c>
       <c r="D20">
-        <v>0.03236304117419486</v>
+        <v>0.05342926867407982</v>
       </c>
       <c r="E20">
-        <v>2.124763384432796</v>
+        <v>1.841276347001539</v>
       </c>
       <c r="F20">
-        <v>2.47021774635472</v>
+        <v>0.9461747669340923</v>
       </c>
       <c r="G20">
-        <v>0.0007754531582232839</v>
+        <v>0.8302072587021314</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01821126167775144</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5222833065352717</v>
       </c>
       <c r="K20">
-        <v>2.857827414170089</v>
+        <v>0.4383534567155749</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.910329455153601</v>
       </c>
       <c r="N20">
-        <v>1.672835427456789</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.636731733212418</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.87958659111996</v>
+        <v>1.813387913885151</v>
       </c>
       <c r="C21">
-        <v>0.5436410172069657</v>
+        <v>0.4182090385053243</v>
       </c>
       <c r="D21">
-        <v>0.02994599421821675</v>
+        <v>0.05668111394546571</v>
       </c>
       <c r="E21">
-        <v>2.45347102594647</v>
+        <v>2.168701400629445</v>
       </c>
       <c r="F21">
-        <v>2.749974424182597</v>
+        <v>1.046510471614411</v>
       </c>
       <c r="G21">
-        <v>0.0007651077373576706</v>
+        <v>0.9203259254256295</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02497605955338411</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5583074214371919</v>
       </c>
       <c r="K21">
-        <v>3.267273818753949</v>
+        <v>0.4680455117486702</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.16748276434933</v>
       </c>
       <c r="N21">
-        <v>1.71527956470274</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5997648518096206</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.120017686471385</v>
+        <v>1.949573107742879</v>
       </c>
       <c r="C22">
-        <v>0.5904374207340197</v>
+        <v>0.4496736081043196</v>
       </c>
       <c r="D22">
-        <v>0.02841986453175416</v>
+        <v>0.05927289594691842</v>
       </c>
       <c r="E22">
-        <v>2.677876152058175</v>
+        <v>2.332626514046908</v>
       </c>
       <c r="F22">
-        <v>2.94075482425535</v>
+        <v>1.107022569635518</v>
       </c>
       <c r="G22">
-        <v>0.0007583539888766682</v>
+        <v>0.9734872323892318</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0294929035313376</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5791047393163353</v>
       </c>
       <c r="K22">
-        <v>3.542691854126645</v>
+        <v>0.484912582562508</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.330423540063833</v>
       </c>
       <c r="N22">
-        <v>1.746990027703276</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5749312367125157</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.99101901986046</v>
+        <v>1.87680345836884</v>
       </c>
       <c r="C23">
-        <v>0.5653129289438539</v>
+        <v>0.4328557463892651</v>
       </c>
       <c r="D23">
-        <v>0.02922894433216783</v>
+        <v>0.05789179862227201</v>
       </c>
       <c r="E23">
-        <v>2.557119534226004</v>
+        <v>2.245004903704171</v>
       </c>
       <c r="F23">
-        <v>2.838133232726022</v>
+        <v>1.074569064355828</v>
       </c>
       <c r="G23">
-        <v>0.0007619592742973368</v>
+        <v>0.9449625237121637</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02704220280096958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5679255863456234</v>
       </c>
       <c r="K23">
-        <v>3.394900444385542</v>
+        <v>0.475827819893702</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.243351265303886</v>
       </c>
       <c r="N23">
-        <v>1.729671212800952</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5880905434330685</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.516146344919946</v>
+        <v>1.602931760268518</v>
       </c>
       <c r="C24">
-        <v>0.4731446969176716</v>
+        <v>0.3696618343969931</v>
       </c>
       <c r="D24">
-        <v>0.03240334008103929</v>
+        <v>0.05261317048559278</v>
       </c>
       <c r="E24">
-        <v>2.11952950151435</v>
+        <v>1.915843040329804</v>
       </c>
       <c r="F24">
-        <v>2.465764355083635</v>
+        <v>0.9549454965032282</v>
       </c>
       <c r="G24">
-        <v>0.0007756226643841673</v>
+        <v>0.8400982553777396</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01859751091742234</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5272538104677977</v>
       </c>
       <c r="K24">
-        <v>2.851250529246471</v>
+        <v>0.4431569131088722</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.915771296512474</v>
       </c>
       <c r="N24">
-        <v>1.672202243714665</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6399501143032786</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.026587526014168</v>
+        <v>1.310397226271249</v>
       </c>
       <c r="C25">
-        <v>0.3785760741302511</v>
+        <v>0.3023282048373517</v>
       </c>
       <c r="D25">
-        <v>0.03601213459516117</v>
+        <v>0.04681747725170027</v>
       </c>
       <c r="E25">
-        <v>1.679033279112986</v>
+        <v>1.565319691514915</v>
       </c>
       <c r="F25">
-        <v>2.091857938224649</v>
+        <v>0.8319673713713485</v>
       </c>
       <c r="G25">
-        <v>0.0007905149192753208</v>
+        <v>0.7327918189044595</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0110273838731377</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4865054358700718</v>
       </c>
       <c r="K25">
-        <v>2.291343729953724</v>
+        <v>0.4111679382801512</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.566064495091268</v>
       </c>
       <c r="N25">
-        <v>1.624517111404032</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6998262810009628</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.096683238643152</v>
+        <v>1.025514151153573</v>
       </c>
       <c r="C2">
-        <v>0.2532363390110959</v>
+        <v>0.2893568414097274</v>
       </c>
       <c r="D2">
-        <v>0.04246238224219212</v>
+        <v>0.04649575702948283</v>
       </c>
       <c r="E2">
-        <v>1.309943267268125</v>
+        <v>1.308805958699367</v>
       </c>
       <c r="F2">
-        <v>0.7457128266969022</v>
+        <v>0.6844311798175653</v>
       </c>
       <c r="G2">
-        <v>0.6578740848121782</v>
+        <v>0.570415280293858</v>
       </c>
       <c r="H2">
-        <v>0.006545012127430305</v>
+        <v>0.006432291381313626</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4587774152869599</v>
+        <v>0.4647611649077419</v>
       </c>
       <c r="K2">
-        <v>0.3899850615615534</v>
+        <v>0.3401667738775345</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1845558924570732</v>
       </c>
       <c r="M2">
-        <v>1.310696010820664</v>
+        <v>0.08514921883854143</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.293596040663317</v>
       </c>
       <c r="P2">
-        <v>0.7469601270410884</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7174915216083413</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9525325446893191</v>
+        <v>0.8961771111112569</v>
       </c>
       <c r="C3">
-        <v>0.2201659039657073</v>
+        <v>0.2489075570954924</v>
       </c>
       <c r="D3">
-        <v>0.03945626923576384</v>
+        <v>0.04243681277928602</v>
       </c>
       <c r="E3">
-        <v>1.138022395686079</v>
+        <v>1.1381594558123</v>
       </c>
       <c r="F3">
-        <v>0.6895188325978694</v>
+        <v>0.6373000888441211</v>
       </c>
       <c r="G3">
-        <v>0.6092426983436496</v>
+        <v>0.5324169779530905</v>
       </c>
       <c r="H3">
-        <v>0.004081230096416588</v>
+        <v>0.004092958366796573</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4412177759691076</v>
+        <v>0.4484268436621477</v>
       </c>
       <c r="K3">
-        <v>0.3769132504285757</v>
+        <v>0.3326889166135487</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1874890259353243</v>
       </c>
       <c r="M3">
-        <v>1.138494760440778</v>
+        <v>0.07723119284071345</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.125632698042068</v>
       </c>
       <c r="P3">
-        <v>0.7806494981598711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7499986022600833</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.864252800102264</v>
+        <v>0.8166781598320938</v>
       </c>
       <c r="C4">
-        <v>0.1999278964025848</v>
+        <v>0.2242533816901471</v>
       </c>
       <c r="D4">
-        <v>0.03758367776491056</v>
+        <v>0.03992883018826276</v>
       </c>
       <c r="E4">
-        <v>1.032864463636841</v>
+        <v>1.033691866337165</v>
       </c>
       <c r="F4">
-        <v>0.6560036488666867</v>
+        <v>0.6090830502369968</v>
       </c>
       <c r="G4">
-        <v>0.5803133240637521</v>
+        <v>0.5099008558451601</v>
       </c>
       <c r="H4">
-        <v>0.002818475001246989</v>
+        <v>0.002881032978853781</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4309865744772736</v>
+        <v>0.4386123214491136</v>
       </c>
       <c r="K4">
-        <v>0.369460818599034</v>
+        <v>0.3284712924793283</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1893529154334637</v>
       </c>
       <c r="M4">
-        <v>1.03305122783712</v>
+        <v>0.07310907712321324</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.022626267960561</v>
       </c>
       <c r="P4">
-        <v>0.8021486849245765</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7706809392467289</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8283211712897867</v>
+        <v>0.7842504825666197</v>
       </c>
       <c r="C5">
-        <v>0.1916934807493504</v>
+        <v>0.2142474621081476</v>
       </c>
       <c r="D5">
-        <v>0.03681387080749943</v>
+        <v>0.03890282005048107</v>
       </c>
       <c r="E5">
-        <v>0.9900903040723534</v>
+        <v>0.9911786042442259</v>
       </c>
       <c r="F5">
-        <v>0.6425767351000928</v>
+        <v>0.5977518994474096</v>
       </c>
       <c r="G5">
-        <v>0.568740883257874</v>
+        <v>0.5009140638866825</v>
       </c>
       <c r="H5">
-        <v>0.002362074124612867</v>
+        <v>0.002439452941191966</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4269477451456396</v>
+        <v>0.4346629830206439</v>
       </c>
       <c r="K5">
-        <v>0.3665598169465483</v>
+        <v>0.3268407376573172</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1901279278923198</v>
       </c>
       <c r="M5">
-        <v>0.9901362068659694</v>
+        <v>0.07161085832489356</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9806669048952017</v>
       </c>
       <c r="P5">
-        <v>0.8111075924212088</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7792856527548242</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8223569428510018</v>
+        <v>0.7788637327781487</v>
       </c>
       <c r="C6">
-        <v>0.1903268131962221</v>
+        <v>0.2125883172314218</v>
       </c>
       <c r="D6">
-        <v>0.03668564074412117</v>
+        <v>0.03873221060815624</v>
       </c>
       <c r="E6">
-        <v>0.9829917923416644</v>
+        <v>0.9841222576479964</v>
       </c>
       <c r="F6">
-        <v>0.6403606453967967</v>
+        <v>0.5958800928528873</v>
       </c>
       <c r="G6">
-        <v>0.5668318711243359</v>
+        <v>0.4994327512979737</v>
       </c>
       <c r="H6">
-        <v>0.002289669906662128</v>
+        <v>0.002369168922121911</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4262847555590241</v>
+        <v>0.4340101184813818</v>
       </c>
       <c r="K6">
-        <v>0.3660860812520319</v>
+        <v>0.3265751442465934</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1902575417677639</v>
       </c>
       <c r="M6">
-        <v>0.9830129443602686</v>
+        <v>0.07137292290009789</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9737001774716703</v>
       </c>
       <c r="P6">
-        <v>0.8126069670251557</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7807249692913949</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.863768057843231</v>
+        <v>0.8156297120650322</v>
       </c>
       <c r="C7">
-        <v>0.1998167980077312</v>
+        <v>0.2235229627276425</v>
       </c>
       <c r="D7">
-        <v>0.03757332300145677</v>
+        <v>0.04001809786805666</v>
       </c>
       <c r="E7">
-        <v>1.032287307370964</v>
+        <v>1.033075774469182</v>
       </c>
       <c r="F7">
-        <v>0.6558216570630364</v>
+        <v>0.6075377340062218</v>
       </c>
       <c r="G7">
-        <v>0.5801563998703756</v>
+        <v>0.5130784145486302</v>
       </c>
       <c r="H7">
-        <v>0.002812090291246294</v>
+        <v>0.002871648721826103</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4309315873738058</v>
+        <v>0.4327194790309221</v>
       </c>
       <c r="K7">
-        <v>0.369421155046016</v>
+        <v>0.3277771350508019</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1890499896018589</v>
       </c>
       <c r="M7">
-        <v>1.032472265653979</v>
+        <v>0.07289165299253852</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.020766294796204</v>
       </c>
       <c r="P7">
-        <v>0.8022687156890953</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7704151152236527</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.046923397533106</v>
+        <v>0.9788798369019958</v>
       </c>
       <c r="C8">
-        <v>0.2418170549396734</v>
+        <v>0.2733570165746357</v>
       </c>
       <c r="D8">
-        <v>0.04143146103472972</v>
+        <v>0.04545145032589204</v>
       </c>
       <c r="E8">
-        <v>1.250567503960468</v>
+        <v>1.249743436089403</v>
       </c>
       <c r="F8">
-        <v>0.7261211116445807</v>
+        <v>0.663401466341071</v>
       </c>
       <c r="G8">
-        <v>0.6409020588526175</v>
+        <v>0.5681818075242546</v>
       </c>
       <c r="H8">
-        <v>0.005640725256658707</v>
+        <v>0.005562652404779156</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4526036780670069</v>
+        <v>0.4399256843896211</v>
       </c>
       <c r="K8">
-        <v>0.3853536754000686</v>
+        <v>0.335299056104283</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1845991579375408</v>
       </c>
       <c r="M8">
-        <v>1.251249569912346</v>
+        <v>0.08154141174149032</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.231299816137522</v>
       </c>
       <c r="P8">
-        <v>0.7584031179492499</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.727399382101245</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40862655967436</v>
+        <v>1.301027966536878</v>
       </c>
       <c r="C9">
-        <v>0.3249196782474542</v>
+        <v>0.3749164979465149</v>
       </c>
       <c r="D9">
-        <v>0.04878339979190827</v>
+        <v>0.05560731984346035</v>
       </c>
       <c r="E9">
-        <v>1.68289707176973</v>
+        <v>1.678194044948711</v>
       </c>
       <c r="F9">
-        <v>0.8726674551577815</v>
+        <v>0.7843909454465603</v>
       </c>
       <c r="G9">
-        <v>0.7682450394219273</v>
+        <v>0.6714053846682333</v>
       </c>
       <c r="H9">
-        <v>0.01339296803937984</v>
+        <v>0.01282599795263395</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4998520238899005</v>
+        <v>0.4767535134046597</v>
       </c>
       <c r="K9">
-        <v>0.4215480313651625</v>
+        <v>0.3557311493534883</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1775329204565246</v>
       </c>
       <c r="M9">
-        <v>1.683470346682526</v>
+        <v>0.1052883897062493</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.65053914290894</v>
       </c>
       <c r="P9">
-        <v>0.6791618829741779</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6504143877568609</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.669771581278354</v>
+        <v>1.529024465300381</v>
       </c>
       <c r="C10">
-        <v>0.3823664411435459</v>
+        <v>0.4418021384880149</v>
       </c>
       <c r="D10">
-        <v>0.05502352474987049</v>
+        <v>0.06467501916013418</v>
       </c>
       <c r="E10">
-        <v>1.903662538812583</v>
+        <v>1.895429948665338</v>
       </c>
       <c r="F10">
-        <v>0.973732108723226</v>
+        <v>0.8587034572819192</v>
       </c>
       <c r="G10">
-        <v>0.8536928963456916</v>
+        <v>0.76029974726994</v>
       </c>
       <c r="H10">
-        <v>0.02014078243982897</v>
+        <v>0.01903172625406313</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5310057686339746</v>
+        <v>0.4670485710153116</v>
       </c>
       <c r="K10">
-        <v>0.4450715710466895</v>
+        <v>0.3641795045184253</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.169475032234331</v>
       </c>
       <c r="M10">
-        <v>1.992110716226222</v>
+        <v>0.1231153374574667</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.94107686485242</v>
       </c>
       <c r="P10">
-        <v>0.6223095829227354</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5949050349458407</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.726202639486417</v>
+        <v>1.577912398147106</v>
       </c>
       <c r="C11">
-        <v>0.3712349120766589</v>
+        <v>0.4200338483953203</v>
       </c>
       <c r="D11">
-        <v>0.06701640179983315</v>
+        <v>0.07970707787843878</v>
       </c>
       <c r="E11">
-        <v>1.224658074099352</v>
+        <v>1.217245951666541</v>
       </c>
       <c r="F11">
-        <v>0.9085466514238192</v>
+        <v>0.783980219120167</v>
       </c>
       <c r="G11">
-        <v>0.7721343971197427</v>
+        <v>0.7287708769707564</v>
       </c>
       <c r="H11">
-        <v>0.03600864669700243</v>
+        <v>0.0348564019239781</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4861638844025009</v>
+        <v>0.3691859727184266</v>
       </c>
       <c r="K11">
-        <v>0.4001139681782604</v>
+        <v>0.3194696913132944</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1489436654534302</v>
       </c>
       <c r="M11">
-        <v>2.027063146340026</v>
+        <v>0.1113534335169035</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.958739079897384</v>
       </c>
       <c r="P11">
-        <v>0.5749456652057248</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5628108390887747</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.718116587915176</v>
+        <v>1.572958041665743</v>
       </c>
       <c r="C12">
-        <v>0.3503518994771184</v>
+        <v>0.3908583417297677</v>
       </c>
       <c r="D12">
-        <v>0.07683116928581057</v>
+        <v>0.0911308030097473</v>
       </c>
       <c r="E12">
-        <v>0.7361531798971868</v>
+        <v>0.7301776960493527</v>
       </c>
       <c r="F12">
-        <v>0.8335914646536651</v>
+        <v>0.7122333801404892</v>
       </c>
       <c r="G12">
-        <v>0.6884032902450059</v>
+        <v>0.6714793980760447</v>
       </c>
       <c r="H12">
-        <v>0.07223507780971516</v>
+        <v>0.07115936503782905</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4428588440431867</v>
+        <v>0.3144775559807158</v>
       </c>
       <c r="K12">
-        <v>0.3587328441353677</v>
+        <v>0.2840864552312112</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.135202495666622</v>
       </c>
       <c r="M12">
-        <v>1.991101774655732</v>
+        <v>0.09880967816162922</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.917100401986289</v>
       </c>
       <c r="P12">
-        <v>0.5535301984367669</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.5553677568112452</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.660078103530111</v>
+        <v>1.528004515166771</v>
       </c>
       <c r="C13">
-        <v>0.3209868428505445</v>
+        <v>0.3557884594971199</v>
       </c>
       <c r="D13">
-        <v>0.08538484099352672</v>
+        <v>0.09965226158792007</v>
       </c>
       <c r="E13">
-        <v>0.3665784061742414</v>
+        <v>0.3622983038474388</v>
       </c>
       <c r="F13">
-        <v>0.7469159644707304</v>
+        <v>0.6408435208111314</v>
       </c>
       <c r="G13">
-        <v>0.5983295542608005</v>
+        <v>0.5848334804144599</v>
       </c>
       <c r="H13">
-        <v>0.1255292100764933</v>
+        <v>0.1246175604848645</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3982342762643469</v>
+        <v>0.2910754812172769</v>
       </c>
       <c r="K13">
-        <v>0.3176525222196176</v>
+        <v>0.2543462089646198</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1254196506504286</v>
       </c>
       <c r="M13">
-        <v>1.898964898993768</v>
+        <v>0.0856576971669476</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.831054984067578</v>
       </c>
       <c r="P13">
-        <v>0.5497557822412884</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5631081269971112</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.597273006316328</v>
+        <v>1.478580555205724</v>
       </c>
       <c r="C14">
-        <v>0.2969279560106486</v>
+        <v>0.3287272893278441</v>
       </c>
       <c r="D14">
-        <v>0.0908323264911175</v>
+        <v>0.1042354536154875</v>
       </c>
       <c r="E14">
-        <v>0.1802201457520027</v>
+        <v>0.1770638310484642</v>
       </c>
       <c r="F14">
-        <v>0.6817799919209335</v>
+        <v>0.5909264849285947</v>
       </c>
       <c r="G14">
-        <v>0.5334720593612445</v>
+        <v>0.5139212638802064</v>
       </c>
       <c r="H14">
-        <v>0.1732645670386148</v>
+        <v>0.1724911860211904</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3668419358795632</v>
+        <v>0.285779582621501</v>
       </c>
       <c r="K14">
-        <v>0.2894932104971453</v>
+        <v>0.2359141341042594</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1200887993524837</v>
       </c>
       <c r="M14">
-        <v>1.809807138679417</v>
+        <v>0.07634881107014735</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.75102493552447</v>
       </c>
       <c r="P14">
-        <v>0.5556099885838464</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.5747313942980199</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.571505984733733</v>
+        <v>1.457980880229059</v>
       </c>
       <c r="C15">
-        <v>0.2892395114834869</v>
+        <v>0.3206337641510686</v>
       </c>
       <c r="D15">
-        <v>0.09173187124256543</v>
+        <v>0.1045707187324183</v>
       </c>
       <c r="E15">
-        <v>0.1437785454043272</v>
+        <v>0.1409324568845385</v>
       </c>
       <c r="F15">
-        <v>0.6633548482218643</v>
+        <v>0.5782197678729943</v>
       </c>
       <c r="G15">
-        <v>0.5160372170657013</v>
+        <v>0.4917506093215849</v>
       </c>
       <c r="H15">
-        <v>0.1852348596132174</v>
+        <v>0.1845145267050441</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3588189897629235</v>
+        <v>0.2890091117198139</v>
       </c>
       <c r="K15">
-        <v>0.2825394953252598</v>
+        <v>0.232171351473955</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1193542141882773</v>
       </c>
       <c r="M15">
-        <v>1.776334654798347</v>
+        <v>0.07389112369577688</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.721884690147533</v>
       </c>
       <c r="P15">
-        <v>0.5598113066466102</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.5794654002712143</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.472385049696953</v>
+        <v>1.375799756366177</v>
       </c>
       <c r="C16">
-        <v>0.2715239726997822</v>
+        <v>0.3051112132154401</v>
       </c>
       <c r="D16">
-        <v>0.08691223566468409</v>
+        <v>0.09689223664245361</v>
       </c>
       <c r="E16">
-        <v>0.139731602577065</v>
+        <v>0.1375180894024481</v>
       </c>
       <c r="F16">
-        <v>0.6387347638231731</v>
+        <v>0.5713822836064253</v>
       </c>
       <c r="G16">
-        <v>0.4990327292762373</v>
+        <v>0.4480858671250019</v>
       </c>
       <c r="H16">
-        <v>0.1705069524992524</v>
+        <v>0.1699890353880988</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3549167058025233</v>
+        <v>0.3298904216715073</v>
       </c>
       <c r="K16">
-        <v>0.2810194992828912</v>
+        <v>0.2383960796988411</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.124643814141578</v>
       </c>
       <c r="M16">
-        <v>1.664953140548647</v>
+        <v>0.07153839355397906</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.628410690825945</v>
       </c>
       <c r="P16">
-        <v>0.5823443853939221</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.5957989636371366</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.42962628629806</v>
+        <v>1.33799028083746</v>
       </c>
       <c r="C17">
-        <v>0.2704945755288577</v>
+        <v>0.3066283217673629</v>
       </c>
       <c r="D17">
-        <v>0.08032355981627859</v>
+        <v>0.08898075035435937</v>
       </c>
       <c r="E17">
-        <v>0.2217533816740556</v>
+        <v>0.2195834752979096</v>
       </c>
       <c r="F17">
-        <v>0.654207661922193</v>
+        <v>0.5913139789377624</v>
       </c>
       <c r="G17">
-        <v>0.5200160224400747</v>
+        <v>0.4547554529551263</v>
       </c>
       <c r="H17">
-        <v>0.1319785726333151</v>
+        <v>0.1315405124624931</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3684857899593794</v>
+        <v>0.3617974467778566</v>
       </c>
       <c r="K17">
-        <v>0.294696769582611</v>
+        <v>0.2526164522355323</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1317609158622446</v>
       </c>
       <c r="M17">
-        <v>1.626551357822137</v>
+        <v>0.07427625065195542</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.597036418723434</v>
       </c>
       <c r="P17">
-        <v>0.5966078375993922</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6038744686861985</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.430245631618931</v>
+        <v>1.335374476056387</v>
       </c>
       <c r="C18">
-        <v>0.284094240097005</v>
+        <v>0.3247463850308634</v>
       </c>
       <c r="D18">
-        <v>0.07188209036218041</v>
+        <v>0.07995506772952865</v>
       </c>
       <c r="E18">
-        <v>0.4499592744951357</v>
+        <v>0.4473265667898048</v>
       </c>
       <c r="F18">
-        <v>0.7068028040995529</v>
+        <v>0.6400665736556874</v>
       </c>
       <c r="G18">
-        <v>0.5777927774755085</v>
+        <v>0.4997176276743716</v>
       </c>
       <c r="H18">
-        <v>0.07970640180937494</v>
+        <v>0.07926344420823739</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3992792969582553</v>
+        <v>0.3976452973593751</v>
       </c>
       <c r="K18">
-        <v>0.323825874564136</v>
+        <v>0.2771759212360507</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1420381700405926</v>
       </c>
       <c r="M18">
-        <v>1.646580953463655</v>
+        <v>0.08221150527507604</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.618602903309721</v>
       </c>
       <c r="P18">
-        <v>0.608348901219915</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6078703589649326</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.466080119306213</v>
+        <v>1.362080908498882</v>
       </c>
       <c r="C19">
-        <v>0.3093532515036372</v>
+        <v>0.3565031936972218</v>
       </c>
       <c r="D19">
-        <v>0.06311875008480428</v>
+        <v>0.0709920655531846</v>
       </c>
       <c r="E19">
-        <v>0.8766361220194341</v>
+        <v>0.8729533724806657</v>
       </c>
       <c r="F19">
-        <v>0.7876885630920896</v>
+        <v>0.7113132823210151</v>
       </c>
       <c r="G19">
-        <v>0.6644828312818873</v>
+        <v>0.572718941226384</v>
       </c>
       <c r="H19">
-        <v>0.03669125243779803</v>
+        <v>0.03615738867116391</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4430993725944461</v>
+        <v>0.4385071081418062</v>
       </c>
       <c r="K19">
-        <v>0.3649173475090279</v>
+        <v>0.3099126034176258</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1546855246483041</v>
       </c>
       <c r="M19">
-        <v>1.713227869036643</v>
+        <v>0.09441924795830658</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.683346653687408</v>
       </c>
       <c r="P19">
-        <v>0.6216209246293021</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6115096971303005</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.600711367583358</v>
+        <v>1.471163111073167</v>
       </c>
       <c r="C20">
-        <v>0.3670517135436171</v>
+        <v>0.4261888616402985</v>
       </c>
       <c r="D20">
-        <v>0.05342926867407982</v>
+        <v>0.06192180390665669</v>
       </c>
       <c r="E20">
-        <v>1.841276347001539</v>
+        <v>1.834200654493927</v>
       </c>
       <c r="F20">
-        <v>0.9461747669340923</v>
+        <v>0.8433492178251214</v>
       </c>
       <c r="G20">
-        <v>0.8302072587021314</v>
+        <v>0.7238107091620094</v>
       </c>
       <c r="H20">
-        <v>0.01821126167775144</v>
+        <v>0.01728193192423344</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5222833065352717</v>
+        <v>0.4889950941990406</v>
       </c>
       <c r="K20">
-        <v>0.4383534567155749</v>
+        <v>0.3638871311768384</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1722861935237958</v>
       </c>
       <c r="M20">
-        <v>1.910329455153601</v>
+        <v>0.1190297754802181</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.869007396185538</v>
       </c>
       <c r="P20">
-        <v>0.636731733212418</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6099797491264383</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.813387913885151</v>
+        <v>1.642935027650338</v>
       </c>
       <c r="C21">
-        <v>0.4182090385053243</v>
+        <v>0.4743483569734792</v>
       </c>
       <c r="D21">
-        <v>0.05668111394546571</v>
+        <v>0.06951057314410036</v>
       </c>
       <c r="E21">
-        <v>2.168701400629445</v>
+        <v>2.157163395241611</v>
       </c>
       <c r="F21">
-        <v>1.046510471614411</v>
+        <v>0.8931415960751252</v>
       </c>
       <c r="G21">
-        <v>0.9203259254256295</v>
+        <v>0.8807878099333664</v>
       </c>
       <c r="H21">
-        <v>0.02497605955338411</v>
+        <v>0.0233735061710254</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5583074214371919</v>
+        <v>0.3939445504078094</v>
       </c>
       <c r="K21">
-        <v>0.4680455117486702</v>
+        <v>0.3668822490905796</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1649048101080908</v>
       </c>
       <c r="M21">
-        <v>2.16748276434933</v>
+        <v>0.1321465509886721</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.085126392868091</v>
       </c>
       <c r="P21">
-        <v>0.5997648518096206</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.566471136331173</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.949573107742879</v>
+        <v>1.751506585942309</v>
       </c>
       <c r="C22">
-        <v>0.4496736081043196</v>
+        <v>0.5022614115652289</v>
       </c>
       <c r="D22">
-        <v>0.05927289594691842</v>
+        <v>0.07525950148949789</v>
       </c>
       <c r="E22">
-        <v>2.332626514046908</v>
+        <v>2.318053992344787</v>
       </c>
       <c r="F22">
-        <v>1.107022569635518</v>
+        <v>0.9187528532240208</v>
       </c>
       <c r="G22">
-        <v>0.9734872323892318</v>
+        <v>0.9878452325591383</v>
       </c>
       <c r="H22">
-        <v>0.0294929035313376</v>
+        <v>0.02740074941723769</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5791047393163353</v>
+        <v>0.3322173244023645</v>
       </c>
       <c r="K22">
-        <v>0.484912582562508</v>
+        <v>0.3657840989761141</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.159119889701465</v>
       </c>
       <c r="M22">
-        <v>2.330423540063833</v>
+        <v>0.1398116100456193</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.218612856926939</v>
       </c>
       <c r="P22">
-        <v>0.5749312367125157</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5384132386587988</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.87680345836884</v>
+        <v>1.69524937719342</v>
       </c>
       <c r="C23">
-        <v>0.4328557463892651</v>
+        <v>0.4890280578781017</v>
       </c>
       <c r="D23">
-        <v>0.05789179862227201</v>
+        <v>0.07186326207410332</v>
       </c>
       <c r="E23">
-        <v>2.245004903704171</v>
+        <v>2.232195299411217</v>
       </c>
       <c r="F23">
-        <v>1.074569064355828</v>
+        <v>0.9086918770979935</v>
       </c>
       <c r="G23">
-        <v>0.9449625237121637</v>
+        <v>0.9203369600137705</v>
       </c>
       <c r="H23">
-        <v>0.02704220280096958</v>
+        <v>0.02523416650369725</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5679255863456234</v>
+        <v>0.3759743919936938</v>
       </c>
       <c r="K23">
-        <v>0.475827819893702</v>
+        <v>0.368028912336051</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1627563284010023</v>
       </c>
       <c r="M23">
-        <v>2.243351265303886</v>
+        <v>0.1363874318219302</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.150954595194605</v>
       </c>
       <c r="P23">
-        <v>0.5880905434330685</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5538307723286309</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.602931760268518</v>
+        <v>1.47263095067396</v>
       </c>
       <c r="C24">
-        <v>0.3696618343969931</v>
+        <v>0.4295671835572819</v>
       </c>
       <c r="D24">
-        <v>0.05261317048559278</v>
+        <v>0.06102709530612316</v>
       </c>
       <c r="E24">
-        <v>1.915843040329804</v>
+        <v>1.908579314480463</v>
       </c>
       <c r="F24">
-        <v>0.9549454965032282</v>
+        <v>0.8512529411227518</v>
       </c>
       <c r="G24">
-        <v>0.8400982553777396</v>
+        <v>0.731705621934708</v>
       </c>
       <c r="H24">
-        <v>0.01859751091742234</v>
+        <v>0.01765061851179439</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5272538104677977</v>
+        <v>0.4943625247964576</v>
       </c>
       <c r="K24">
-        <v>0.4431569131088722</v>
+        <v>0.3678167111693398</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1738722750468931</v>
       </c>
       <c r="M24">
-        <v>1.915771296512474</v>
+        <v>0.1204186768573088</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.874452623696158</v>
       </c>
       <c r="P24">
-        <v>0.6399501143032786</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6118825327062272</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.310397226271249</v>
+        <v>1.214719253047065</v>
       </c>
       <c r="C25">
-        <v>0.3023282048373517</v>
+        <v>0.3481080743224254</v>
       </c>
       <c r="D25">
-        <v>0.04681747725170027</v>
+        <v>0.05271713467746508</v>
       </c>
       <c r="E25">
-        <v>1.565319691514915</v>
+        <v>1.561845838439893</v>
       </c>
       <c r="F25">
-        <v>0.8319673713713485</v>
+        <v>0.752862971656711</v>
       </c>
       <c r="G25">
-        <v>0.7327918189044595</v>
+        <v>0.6378059970944037</v>
       </c>
       <c r="H25">
-        <v>0.0110273838731377</v>
+        <v>0.01062893214850831</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4865054358700718</v>
+        <v>0.474694962846641</v>
       </c>
       <c r="K25">
-        <v>0.4111679382801512</v>
+        <v>0.3507541613451366</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1797564394890543</v>
       </c>
       <c r="M25">
-        <v>1.566064495091268</v>
+        <v>0.09852478420922139</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.538728249322901</v>
       </c>
       <c r="P25">
-        <v>0.6998262810009628</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6710015379127832</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
